--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -20,31 +20,31 @@
     <t>测试报告总概况</t>
   </si>
   <si>
-    <t>WebLink知识测试概括</t>
-  </si>
-  <si>
-    <t>versionCode</t>
-  </si>
-  <si>
-    <t>versionName</t>
-  </si>
-  <si>
-    <t>packingTime</t>
+    <t>dr.fone_测试概括</t>
+  </si>
+  <si>
+    <t>包名</t>
+  </si>
+  <si>
+    <t>版本号</t>
+  </si>
+  <si>
+    <t>版本名称</t>
   </si>
   <si>
     <t>测试日期</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1.4.0</t>
-  </si>
-  <si>
-    <t>2017/12/4 13:00</t>
-  </si>
-  <si>
-    <t>2018-09-16 16:28:55</t>
+    <t>com.wondershare.drfone</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>3.2.0.162</t>
+  </si>
+  <si>
+    <t>2018-09-17 17:36:31</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>11秒</t>
+    <t>7秒</t>
   </si>
   <si>
     <t>脚本语言</t>

--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -44,7 +44,7 @@
     <t>3.2.0.162</t>
   </si>
   <si>
-    <t>2018-09-17 17:36:31</t>
+    <t>2018-09-18 17:57:33</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>7秒</t>
+    <t>11秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -129,6 +129,7 @@
   </si>
   <si>
     <t xml:space="preserve">登录
+输入账号
 </t>
   </si>
   <si>

--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -20,7 +20,7 @@
     <t>测试报告总概况</t>
   </si>
   <si>
-    <t>dr.fone_测试概括</t>
+    <t>WeChat_测试概括</t>
   </si>
   <si>
     <t>包名</t>
@@ -35,16 +35,16 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>com.wondershare.drfone</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>3.2.0.162</t>
-  </si>
-  <si>
-    <t>2018-09-18 17:57:33</t>
+    <t>com.tencent.mm</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>6.6.6</t>
+  </si>
+  <si>
+    <t>2018-09-19 17:32:59</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>11秒</t>
+    <t>14秒</t>
   </si>
   <si>
     <t>脚本语言</t>

--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>6.6.6</t>
   </si>
   <si>
-    <t>2018-09-19 17:32:59</t>
+    <t>2018-09-20 16:54:40</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>14秒</t>
+    <t>24秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>android_5.1.1</t>
+  </si>
+  <si>
+    <t>Xiaomi_Redmi</t>
+  </si>
+  <si>
+    <t>android_7.1.2</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -292,7 +298,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -648,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,7 +696,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -707,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -769,6 +775,20 @@
         <v>1</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <v>0</v>
       </c>
     </row>
@@ -805,7 +825,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -822,31 +842,31 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1">
@@ -854,22 +874,22 @@
         <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>19</v>
@@ -877,7 +897,34 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1"/>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>

--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>6.6.6</t>
   </si>
   <si>
-    <t>2018-09-20 16:54:40</t>
+    <t>2018-09-20 17:23:41</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>24秒</t>
+    <t>52秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -80,16 +80,16 @@
     <t>失败</t>
   </si>
   <si>
+    <t>Xiaomi_Redmi</t>
+  </si>
+  <si>
+    <t>android_7.1.2</t>
+  </si>
+  <si>
     <t>brand1_model2</t>
   </si>
   <si>
     <t>android_5.1.1</t>
-  </si>
-  <si>
-    <t>Xiaomi_Redmi</t>
-  </si>
-  <si>
-    <t>android_7.1.2</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -141,6 +141,10 @@
   <si>
     <t xml:space="preserve">打开页面成功
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.tencent.mm:id/d1w, 
+执行过程中失败，请检查元素是否存在com.tencent.mm:id/d1w, </t>
   </si>
 </sst>
 </file>
@@ -298,10 +302,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -364,6 +368,49 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>857250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="第一次启动appCheckPoint_1_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="952500"/>
+          <a:ext cx="476250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -713,7 +760,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -730,7 +777,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -786,10 +833,10 @@
         <v>24</v>
       </c>
       <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
         <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +944,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
+    <row r="4" spans="1:10" ht="110" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -920,10 +967,11 @@
         <v>40</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
@@ -937,5 +985,6 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>6.6.6</t>
   </si>
   <si>
-    <t>2018-09-20 17:23:41</t>
+    <t>2018-09-27 17:54:47</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>52秒</t>
+    <t>0秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -80,18 +80,6 @@
     <t>失败</t>
   </si>
   <si>
-    <t>Xiaomi_Redmi</t>
-  </si>
-  <si>
-    <t>android_7.1.2</t>
-  </si>
-  <si>
-    <t>brand1_model2</t>
-  </si>
-  <si>
-    <t>android_5.1.1</t>
-  </si>
-  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -120,31 +108,6 @@
   </si>
   <si>
     <t>截图</t>
-  </si>
-  <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>第一次启动app</t>
-  </si>
-  <si>
-    <t>testFirstOpen</t>
-  </si>
-  <si>
-    <t>打开app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录
-输入账号
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">打开页面成功
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.tencent.mm:id/d1w, 
-执行过程中失败，请检查元素是否存在com.tencent.mm:id/d1w, </t>
   </si>
 </sst>
 </file>
@@ -302,10 +265,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -368,49 +331,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>857250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="第一次启动appCheckPoint_1_NG.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13096875" y="952500"/>
-          <a:ext cx="476250" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -701,7 +621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -743,7 +663,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -760,7 +680,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -777,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -811,34 +731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -872,7 +765,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -889,90 +782,35 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="110" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1"/>
+    <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>
@@ -985,6 +823,5 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>6.6.6</t>
   </si>
   <si>
-    <t>2018-09-27 17:54:47</t>
+    <t>2018-09-27 22:19:57</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>0秒</t>
+    <t>60秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -80,6 +80,12 @@
     <t>失败</t>
   </si>
   <si>
+    <t>brand1_model2</t>
+  </si>
+  <si>
+    <t>android_5.1.1</t>
+  </si>
+  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -108,6 +114,51 @@
   </si>
   <si>
     <t>截图</t>
+  </si>
+  <si>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>第一次启动app</t>
+  </si>
+  <si>
+    <t>testFirstOpen</t>
+  </si>
+  <si>
+    <t>打开app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录
+输入账号
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打开页面成功
+</t>
+  </si>
+  <si>
+    <t>test002</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>testDevice</t>
+  </si>
+  <si>
+    <t>输入账号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击我
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证成功
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在my.png, 
+执行过程中失败，请检查元素是否存在my.png, </t>
   </si>
 </sst>
 </file>
@@ -265,10 +316,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -331,6 +382,49 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="登录CheckPoint_1_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="952500"/>
+          <a:ext cx="333375" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -621,7 +715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,7 +757,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -680,7 +774,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -697,7 +791,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -731,7 +825,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1"/>
+    <row r="9" spans="1:5" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -765,7 +886,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -782,36 +903,118 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1"/>
-    <row r="4" spans="1:10" ht="30" customHeight="1"/>
-    <row r="5" spans="1:10" ht="30" customHeight="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="110" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>
     <row r="8" spans="1:10" ht="30" customHeight="1"/>
@@ -823,5 +1026,6 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>6.6.6</t>
   </si>
   <si>
-    <t>2018-09-27 22:19:57</t>
+    <t>2018-09-28 17:09:16</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>60秒</t>
+    <t>64秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -83,6 +83,9 @@
     <t>brand1_model2</t>
   </si>
   <si>
+    <t>android_7.1.2</t>
+  </si>
+  <si>
     <t>android_5.1.1</t>
   </si>
   <si>
@@ -119,13 +122,13 @@
     <t>test001</t>
   </si>
   <si>
-    <t>第一次启动app</t>
-  </si>
-  <si>
-    <t>testFirstOpen</t>
-  </si>
-  <si>
-    <t>打开app</t>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>testLogining</t>
+  </si>
+  <si>
+    <t>输入账号and密码</t>
   </si>
   <si>
     <t xml:space="preserve">登录
@@ -133,20 +136,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">打开页面成功
+    <t xml:space="preserve">输入密码
 </t>
   </si>
   <si>
-    <t>test002</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>testDevice</t>
-  </si>
-  <si>
-    <t>输入账号</t>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.tencent.mm:id/d1w, 
+执行过程中失败，请检查元素是否存在com.tencent.mm:id/d1w, </t>
+  </si>
+  <si>
+    <t>testStatus</t>
+  </si>
+  <si>
+    <t>登录成功</t>
   </si>
   <si>
     <t xml:space="preserve">点击我
@@ -155,10 +156,6 @@
   <si>
     <t xml:space="preserve">验证成功
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在my.png, 
-执行过程中失败，请检查元素是否存在my.png, </t>
   </si>
 </sst>
 </file>
@@ -316,7 +313,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -393,14 +390,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -417,8 +414,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13096875" y="952500"/>
-          <a:ext cx="333375" cy="619125"/>
+          <a:off x="13096875" y="1333500"/>
+          <a:ext cx="685800" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -715,7 +712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -774,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -844,12 +841,26 @@
         <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
         <v>1</v>
       </c>
     </row>
@@ -886,7 +897,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -903,31 +914,31 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1">
@@ -935,22 +946,22 @@
         <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>19</v>
@@ -958,64 +969,91 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="110" customHeight="1">
+    <row r="4" spans="1:10" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="110" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>
     <row r="8" spans="1:10" ht="30" customHeight="1"/>
     <row r="9" spans="1:10" ht="30" customHeight="1"/>

--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>6.6.6</t>
   </si>
   <si>
-    <t>2018-09-28 17:09:16</t>
+    <t>2018-10-10 17:08:05</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>64秒</t>
+    <t>0秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -80,15 +80,6 @@
     <t>失败</t>
   </si>
   <si>
-    <t>brand1_model2</t>
-  </si>
-  <si>
-    <t>android_7.1.2</t>
-  </si>
-  <si>
-    <t>android_5.1.1</t>
-  </si>
-  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -117,45 +108,6 @@
   </si>
   <si>
     <t>截图</t>
-  </si>
-  <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>testLogining</t>
-  </si>
-  <si>
-    <t>输入账号and密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录
-输入账号
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入密码
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.tencent.mm:id/d1w, 
-执行过程中失败，请检查元素是否存在com.tencent.mm:id/d1w, </t>
-  </si>
-  <si>
-    <t>testStatus</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击我
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">验证成功
-</t>
   </si>
 </sst>
 </file>
@@ -313,10 +265,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -379,49 +331,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1219200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="登录CheckPoint_1_NG.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13096875" y="1333500"/>
-          <a:ext cx="685800" cy="1219200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -712,7 +621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,7 +663,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -771,7 +680,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -788,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -822,48 +731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -897,7 +765,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -914,146 +782,37 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="110" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1"/>
+    <row r="4" spans="1:10" ht="30" customHeight="1"/>
+    <row r="5" spans="1:10" ht="30" customHeight="1"/>
+    <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>
     <row r="8" spans="1:10" ht="30" customHeight="1"/>
     <row r="9" spans="1:10" ht="30" customHeight="1"/>
@@ -1064,6 +823,5 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>6.6.6</t>
   </si>
   <si>
-    <t>2018-10-10 17:08:05</t>
+    <t>2018-10-11 17:09:15</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>0秒</t>
+    <t>62秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -80,6 +80,12 @@
     <t>失败</t>
   </si>
   <si>
+    <t>samsung_model2</t>
+  </si>
+  <si>
+    <t>android_4.4.2</t>
+  </si>
+  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -108,6 +114,31 @@
   </si>
   <si>
     <t>截图</t>
+  </si>
+  <si>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>testStatus</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击我
+check_img
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证成功
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在login.png, 
+执行过程中失败，请检查元素是否存在login.png, </t>
   </si>
 </sst>
 </file>
@@ -268,7 +299,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -331,6 +362,49 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>857250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="登录CheckPoint_1_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="571500"/>
+          <a:ext cx="476250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -663,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -697,7 +771,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -731,7 +805,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1"/>
+    <row r="9" spans="1:5" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -765,7 +852,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -782,34 +869,62 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="110" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
@@ -823,5 +938,6 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>6.6.6</t>
   </si>
   <si>
-    <t>2018-10-11 17:09:15</t>
+    <t>2018-10-15 17:25:20</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>62秒</t>
+    <t>28秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -80,10 +80,10 @@
     <t>失败</t>
   </si>
   <si>
-    <t>samsung_model2</t>
-  </si>
-  <si>
-    <t>android_4.4.2</t>
+    <t>brand1_model2</t>
+  </si>
+  <si>
+    <t>android_5.0</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -128,17 +128,13 @@
     <t>登录成功</t>
   </si>
   <si>
-    <t xml:space="preserve">点击我
-check_img
+    <t xml:space="preserve">点击搜索按钮
+点击搜索按钮
 </t>
   </si>
   <si>
     <t xml:space="preserve">验证成功
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在login.png, 
-执行过程中失败，请检查元素是否存在login.png, </t>
   </si>
 </sst>
 </file>
@@ -296,10 +292,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -362,49 +358,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>857250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="登录CheckPoint_1_NG.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13096875" y="571500"/>
-          <a:ext cx="476250" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -754,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -771,7 +724,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -813,10 +766,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +849,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="110" customHeight="1">
+    <row r="3" spans="1:10" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -919,11 +872,10 @@
         <v>38</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
@@ -938,6 +890,5 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -44,7 +44,7 @@
     <t>6.6.6</t>
   </si>
   <si>
-    <t>2018-10-15 17:25:20</t>
+    <t>2018-10-16 13:43:18</t>
   </si>
   <si>
     <t>用例总数</t>

--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -44,7 +44,7 @@
     <t>6.6.6</t>
   </si>
   <si>
-    <t>2018-10-16 13:43:18</t>
+    <t>2018-10-17 11:45:18</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>28秒</t>
+    <t>43秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -83,7 +83,7 @@
     <t>brand1_model2</t>
   </si>
   <si>
-    <t>android_5.0</t>
+    <t>android_7.1.2</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -116,24 +116,32 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>登录</t>
+    <t xml:space="preserve">test001
+test002
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录1
+登录2
+</t>
   </si>
   <si>
     <t>testStatus</t>
   </si>
   <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击搜索按钮
-点击搜索按钮
+    <t xml:space="preserve">输入账号
+输入密码
 </t>
   </si>
   <si>
-    <t xml:space="preserve">验证成功
+    <t xml:space="preserve">登录
+输入账号
+点击下一步
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">输入密码
+点击登录
 </t>
   </si>
 </sst>

--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>6.6.6</t>
   </si>
   <si>
-    <t>2018-10-17 11:45:18</t>
+    <t>2018-10-17 17:09:00</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>43秒</t>
+    <t>46秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -80,12 +80,6 @@
     <t>失败</t>
   </si>
   <si>
-    <t>brand1_model2</t>
-  </si>
-  <si>
-    <t>android_7.1.2</t>
-  </si>
-  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -114,35 +108,6 @@
   </si>
   <si>
     <t>截图</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test001
-test002
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录1
-登录2
-</t>
-  </si>
-  <si>
-    <t>testStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入账号
-输入密码
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录
-输入账号
-点击下一步
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入密码
-点击登录
-</t>
   </si>
 </sst>
 </file>
@@ -300,7 +265,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -698,7 +663,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -715,7 +680,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -766,20 +731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -813,7 +765,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -830,61 +782,34 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1"/>
     <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>

--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>6.6.6</t>
   </si>
   <si>
-    <t>2018-10-17 17:09:00</t>
+    <t>2018-10-18 17:00:29</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>46秒</t>
+    <t>600秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -80,6 +80,12 @@
     <t>失败</t>
   </si>
   <si>
+    <t>brand1_model2</t>
+  </si>
+  <si>
+    <t>android_5.0</t>
+  </si>
+  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -108,6 +114,39 @@
   </si>
   <si>
     <t>截图</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test001
+test002
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录1
+登录2
+</t>
+  </si>
+  <si>
+    <t>testStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">输入账号
+输入密码
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录
+输入账号
+点击下一步
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">输入密码
+点击登录
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.tencent.mm:id/d1w, 
+执行过程中失败，请检查元素是否存在com.tencent.mm:id/d1w, </t>
   </si>
 </sst>
 </file>
@@ -268,7 +307,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,7 +702,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -697,7 +736,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -731,7 +770,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1"/>
+    <row r="9" spans="1:5" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -765,7 +817,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -782,34 +834,62 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="110" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>

--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>6.6.6</t>
   </si>
   <si>
-    <t>2018-10-18 17:00:29</t>
+    <t>2018-10-19 17:09:37</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>600秒</t>
+    <t>81秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -80,12 +80,6 @@
     <t>失败</t>
   </si>
   <si>
-    <t>brand1_model2</t>
-  </si>
-  <si>
-    <t>android_5.0</t>
-  </si>
-  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -114,39 +108,6 @@
   </si>
   <si>
     <t>截图</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test001
-test002
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录1
-登录2
-</t>
-  </si>
-  <si>
-    <t>testStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入账号
-输入密码
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录
-输入账号
-点击下一步
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入密码
-点击登录
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.tencent.mm:id/d1w, 
-执行过程中失败，请检查元素是否存在com.tencent.mm:id/d1w, </t>
   </si>
 </sst>
 </file>
@@ -307,7 +268,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,7 +663,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -736,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -770,20 +731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -817,7 +765,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -834,62 +782,34 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="110" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1"/>
     <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>

--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -44,7 +44,7 @@
     <t>6.6.6</t>
   </si>
   <si>
-    <t>2018-10-19 17:09:37</t>
+    <t>2018-10-22 17:09:35</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>81秒</t>
+    <t>80秒</t>
   </si>
   <si>
     <t>脚本语言</t>

--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>6.6.6</t>
   </si>
   <si>
-    <t>2018-10-22 17:09:35</t>
+    <t>2018-11-02 17:44:26</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>80秒</t>
+    <t>52秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -80,6 +80,12 @@
     <t>失败</t>
   </si>
   <si>
+    <t>brand1_model2</t>
+  </si>
+  <si>
+    <t>android_5.1.1</t>
+  </si>
+  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -108,6 +114,39 @@
   </si>
   <si>
     <t>截图</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test001
+test002
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录1
+登录2
+</t>
+  </si>
+  <si>
+    <t>testStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">输入账号
+输入密码
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录
+输入账号
+点击下一步
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">输入密码
+点击登录
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.tencent.mm:id/d1w, 
+执行过程中失败，请检查元素是否存在com.tencent.mm:id/d1w, </t>
   </si>
 </sst>
 </file>
@@ -268,7 +307,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,7 +702,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -697,7 +736,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -731,7 +770,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1"/>
+    <row r="9" spans="1:5" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -765,7 +817,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -782,34 +834,62 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="110" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>

--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>6.6.6</t>
   </si>
   <si>
-    <t>2018-11-02 17:44:26</t>
+    <t>2018-12-18 21:23:22</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>52秒</t>
+    <t>14秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -83,7 +83,7 @@
     <t>brand1_model2</t>
   </si>
   <si>
-    <t>android_5.1.1</t>
+    <t>android_4.4.4</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -116,37 +116,24 @@
     <t>截图</t>
   </si>
   <si>
-    <t xml:space="preserve">test001
-test002
+    <t>test001</t>
+  </si>
+  <si>
+    <t>登录1</t>
+  </si>
+  <si>
+    <t>testLogin</t>
+  </si>
+  <si>
+    <t>输入账号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录
 </t>
   </si>
   <si>
-    <t xml:space="preserve">登录1
-登录2
+    <t xml:space="preserve">输入账号
 </t>
-  </si>
-  <si>
-    <t>testStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入账号
-输入密码
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录
-输入账号
-点击下一步
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入密码
-点击登录
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.tencent.mm:id/d1w, 
-执行过程中失败，请检查元素是否存在com.tencent.mm:id/d1w, </t>
   </si>
 </sst>
 </file>
@@ -304,10 +291,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -736,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -778,10 +765,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="110" customHeight="1">
+    <row r="3" spans="1:10" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -884,11 +871,10 @@
         <v>38</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>

--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>6.6.6</t>
   </si>
   <si>
-    <t>2018-12-18 21:23:22</t>
+    <t>2018-12-19 12:52:47</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>14秒</t>
+    <t>81秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -134,6 +134,28 @@
   <si>
     <t xml:space="preserve">输入账号
 </t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击我
+check_img
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">验证成功
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在login.png, 
+执行过程中失败，请检查元素是否存在login.png, </t>
+  </si>
+  <si>
+    <t>testOther</t>
   </si>
 </sst>
 </file>
@@ -291,10 +313,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -357,6 +379,49 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="登录CheckPoint_2_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="952500"/>
+          <a:ext cx="685800" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -689,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -706,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -723,7 +788,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -765,10 +830,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
         <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -876,8 +941,63 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1"/>
-    <row r="5" spans="1:10" ht="30" customHeight="1"/>
+    <row r="4" spans="1:10" ht="110" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>
     <row r="8" spans="1:10" ht="30" customHeight="1"/>
@@ -889,5 +1009,6 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>6.6.6</t>
   </si>
   <si>
-    <t>2018-12-19 12:52:47</t>
+    <t>2018-12-19 14:31:07</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>81秒</t>
+    <t>14秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -134,28 +134,6 @@
   <si>
     <t xml:space="preserve">输入账号
 </t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击我
-check_img
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">验证成功
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在login.png, 
-执行过程中失败，请检查元素是否存在login.png, </t>
-  </si>
-  <si>
-    <t>testOther</t>
   </si>
 </sst>
 </file>
@@ -313,10 +291,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -379,49 +357,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1219200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="登录CheckPoint_2_NG.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13096875" y="952500"/>
-          <a:ext cx="685800" cy="1219200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -754,7 +689,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -771,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -788,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -830,10 +765,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -941,63 +876,8 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="110" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1"/>
+    <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>
     <row r="8" spans="1:10" ht="30" customHeight="1"/>
@@ -1009,6 +889,5 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/app_testProject/Report/Report.xlsx
+++ b/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>6.6.6</t>
   </si>
   <si>
-    <t>2018-12-19 14:31:07</t>
+    <t>2018-12-19 18:51:11</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>14秒</t>
+    <t>71秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -116,24 +116,31 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>登录1</t>
+    <t>test001_test001_</t>
+  </si>
+  <si>
+    <t>登录1_登录_</t>
   </si>
   <si>
     <t>testLogin</t>
   </si>
   <si>
-    <t>输入账号</t>
+    <t>输入账号_登录成功_</t>
   </si>
   <si>
     <t xml:space="preserve">登录
+输入账号
+点击我
+check_img
 </t>
   </si>
   <si>
-    <t xml:space="preserve">输入账号
+    <t xml:space="preserve">验证成功
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在login.png, 
+执行过程中失败，请检查元素是否存在login.png, </t>
   </si>
 </sst>
 </file>
@@ -291,10 +298,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -357,6 +364,49 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="登录1_登录_CheckPoint_1_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="571500"/>
+          <a:ext cx="685800" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -706,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -723,7 +773,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -765,10 +815,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
         <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
+    <row r="3" spans="1:10" ht="110" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -871,10 +921,11 @@
         <v>38</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
@@ -889,5 +940,6 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>